--- a/iteracion1/docs/Modelo Relacional.xlsx
+++ b/iteracion1/docs/Modelo Relacional.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andydonoso/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andydonoso/ProyectoSistrans/iteracion1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A050D92C-BB0E-C540-92C1-5FF83EDB0916}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5701C978-5318-3C4F-AC89-B6DF614C7AB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -244,6 +244,48 @@
   </si>
   <si>
     <t>FK(Hotel.id),NN</t>
+  </si>
+  <si>
+    <t>FK(Usuario.numero_documento), NN, FD</t>
+  </si>
+  <si>
+    <t>id_convencion</t>
+  </si>
+  <si>
+    <t>FK(Convencion.id), NN, ND</t>
+  </si>
+  <si>
+    <t>OrganizadorEventos</t>
+  </si>
+  <si>
+    <t>FK(Cliente.numero_documento)</t>
+  </si>
+  <si>
+    <t>FK(Convencion.id)</t>
+  </si>
+  <si>
+    <t>Convencion</t>
+  </si>
+  <si>
+    <t>fecha_comienzo</t>
+  </si>
+  <si>
+    <t>fecha_terminacion</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t>id_mantenimiento</t>
+  </si>
+  <si>
+    <t>FK(Mantenimiento.id), NN</t>
+  </si>
+  <si>
+    <t>MantenimientoServicio</t>
+  </si>
+  <si>
+    <t>MantenimientoHabitacion</t>
   </si>
 </sst>
 </file>
@@ -446,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -464,53 +506,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="138">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
+  <dxfs count="177">
     <dxf>
       <font>
         <b/>
@@ -600,10 +616,700 @@
       <font>
         <b/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -617,11 +1323,6 @@
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -639,6 +1340,260 @@
       <font>
         <b/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -681,6 +1636,471 @@
       <font>
         <b/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -703,6 +2123,84 @@
       <font>
         <b/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -720,1298 +2218,339 @@
       <font>
         <b/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
         <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
         <horizontal/>
       </border>
     </dxf>
@@ -2437,199 +2976,258 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A2:B3" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136" tableBorderDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A2:B3" totalsRowShown="0" headerRowDxfId="176" dataDxfId="174" headerRowBorderDxfId="175" tableBorderDxfId="173">
   <autoFilter ref="A2:B3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nombre" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nombre" dataDxfId="171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla818" displayName="Tabla818" ref="D22:E23" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla818" displayName="Tabla818" ref="D22:E23" totalsRowShown="0" headerRowDxfId="99" dataDxfId="97" headerRowBorderDxfId="98" tableBorderDxfId="96" totalsRowBorderDxfId="95">
   <autoFilter ref="D22:E23" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="nombre" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="nombre" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla121519" displayName="Tabla121519" ref="A37:J38" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla121519" displayName="Tabla121519" ref="A37:J38" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="88">
   <autoFilter ref="A37:J38" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="nombre" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="hora_apertura" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="hora_cierre" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="descripcion" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="capacidad" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="costo" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="lugar" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{A6BAB021-BAE5-4545-9E76-581A44DF9FBF}" name="disponible" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{6FD1E752-2066-564C-A536-D6E01675615B}" name="id_hotel" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="nombre" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="hora_apertura" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="hora_cierre" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="descripcion" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="capacidad" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="costo" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="lugar" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{A6BAB021-BAE5-4545-9E76-581A44DF9FBF}" name="disponible" dataDxfId="79"/>
+    <tableColumn id="10" xr3:uid="{6FD1E752-2066-564C-A536-D6E01675615B}" name="id_hotel" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla19" displayName="Tabla19" ref="A42:E43" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla19" displayName="Tabla19" ref="A42:E43" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
   <autoFilter ref="A42:E43" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="fecha_entrada" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="fecha_salida" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="id_servicio" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="documento_cliente" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="fecha_entrada" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="fecha_salida" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="id_servicio" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="documento_cliente" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla20" displayName="Tabla20" ref="G22:J23" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla20" displayName="Tabla20" ref="G22:J23" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="G22:J23" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="cantidad" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="id_producto" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{9F193D29-0F9C-6C48-B8E9-5DB8636C0C7E}" name="id_servicio" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="cantidad" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="id_producto" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{9F193D29-0F9C-6C48-B8E9-5DB8636C0C7E}" name="id_servicio" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla3" displayName="Tabla3" ref="A7:H8" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A7:H8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="numero" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="descripcion" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="capacidad" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="tipo_habitacion" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="costo_noche" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="cuenta" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="id_hotel" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1100-000008000000}" name="plan_consumo" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla3" displayName="Tabla3" ref="A7:G8" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+  <autoFilter ref="A7:G8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="numero" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="descripcion" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="capacidad" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="tipo_habitacion" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="costo_noche" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="cuenta" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="id_hotel" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48316B33-3FBF-8C4B-B40A-181D57DB5326}" name="Tabla813" displayName="Tabla813" ref="H32:I33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="H32:I33" xr:uid="{70D94AC3-E002-A94D-9E4B-3750D5A71E04}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48316B33-3FBF-8C4B-B40A-181D57DB5326}" name="Tabla813" displayName="Tabla813" ref="I32:J33" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+  <autoFilter ref="I32:J33" xr:uid="{70D94AC3-E002-A94D-9E4B-3750D5A71E04}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{704CA570-5BD0-A040-8122-86D0A3559F8D}" name="id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9C632396-D8C0-1143-AAF4-B77F965D6103}" name="nombre" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{704CA570-5BD0-A040-8122-86D0A3559F8D}" name="id" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{9C632396-D8C0-1143-AAF4-B77F965D6103}" name="nombre" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D78331C7-C0AB-5C4E-83F2-34D1A5D26FDB}" name="Tabla193" displayName="Tabla193" ref="A47:C48" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+  <autoFilter ref="A47:C48" xr:uid="{4E67CDD1-5B63-2541-BE85-91DA25672676}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{622014C9-185F-D544-9685-B1CA3E18B182}" name="numero_documento" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{CF36C2EC-2C76-CE41-9E4A-F60FAF1CDBBC}" name="id_convencion" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{80E02F49-C0BD-2149-8352-0E23AC00CA9F}" name="id_hotel" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{5E171A8C-E247-0C46-9D95-298EA503B209}" name="Tabla1914" displayName="Tabla1914" ref="E47:G48" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
+  <autoFilter ref="E47:G48" xr:uid="{7EC77E0D-9812-1440-816F-11E30012B6B7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D8104633-D24A-0241-AC66-2FAB2C47DE96}" name="id" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{DA524563-D192-D440-9C2A-709A458D952E}" name="cuenta" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{E8637BC2-1D1F-B441-8948-87D2F207F828}" name="id_hotel" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{390554D8-84F3-634D-9753-3226CC70209C}" name="Tabla1915" displayName="Tabla1915" ref="A52:C53" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <autoFilter ref="A52:C53" xr:uid="{499B6A05-DB7F-F547-B833-BBD59BC8C90B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{76676069-8141-2644-8799-ED06E4221BA7}" name="id" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{632BA1F9-ACE4-7943-86C0-354B14930FE3}" name="fecha_comienzo" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{75B80C56-8B76-AD4F-93CF-B671510688F9}" name="fecha_terminacion" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7E2437CC-5F33-4C43-A91A-7470278E3811}" name="Tabla816" displayName="Tabla816" ref="E52:F53" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+  <autoFilter ref="E52:F53" xr:uid="{78840642-3AE0-F345-9512-ED2412F8331E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{511C7847-38A2-5A47-8733-75BA332725E6}" name="id_mantenimiento" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9BF9900C-8E11-7240-9157-0191B1B77779}" name="id_servicio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla4" displayName="Tabla4" ref="A12:D13" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla4" displayName="Tabla4" ref="A12:D13" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
   <autoFilter ref="A12:D13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="tipo_plan" dataDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="descripcion" dataDxfId="124"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_hotel" dataDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="165"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="tipo_plan" dataDxfId="164"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="descripcion" dataDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_hotel" dataDxfId="162"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{9772A126-C7C3-724C-B7B9-99457D76240C}" name="Tabla817" displayName="Tabla817" ref="H52:I53" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="H52:I53" xr:uid="{504B97FF-9834-BD41-ACC8-6707853B180C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BD6E0C6C-BF21-B94C-8424-E113ABEEB9D4}" name="id_mantenimiento" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{44110F8A-6D72-1149-B7CE-5635937C3D95}" name="numero_habitacion" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla5" displayName="Tabla5" ref="F12:G13" totalsRowShown="0" headerRowDxfId="122" dataDxfId="120" headerRowBorderDxfId="121" tableBorderDxfId="119" totalsRowBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla5" displayName="Tabla5" ref="F12:G13" totalsRowShown="0" headerRowDxfId="161" dataDxfId="159" headerRowBorderDxfId="160" tableBorderDxfId="158" totalsRowBorderDxfId="157">
   <autoFilter ref="F12:G13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="tipo" dataDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="tipo" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla6" displayName="Tabla6" ref="A17:E18" totalsRowShown="0" headerRowDxfId="115" dataDxfId="113" headerRowBorderDxfId="114" tableBorderDxfId="112" totalsRowBorderDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla6" displayName="Tabla6" ref="A17:E18" totalsRowShown="0" headerRowDxfId="154" dataDxfId="152" headerRowBorderDxfId="153" tableBorderDxfId="151" totalsRowBorderDxfId="150">
   <autoFilter ref="A17:E18" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="lugar" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="costo_total" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="numero_habitacion" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{1B728C93-D579-6A4C-88B9-EF49B5168EAC}" name="documento_cliente" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="149"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="lugar" dataDxfId="148"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="costo_total" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="numero_habitacion" dataDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{1B728C93-D579-6A4C-88B9-EF49B5168EAC}" name="documento_cliente" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla7" displayName="Tabla7" ref="G17:J18" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104" totalsRowBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla7" displayName="Tabla7" ref="G17:J18" totalsRowShown="0" headerRowDxfId="144" dataDxfId="142" headerRowBorderDxfId="143" tableBorderDxfId="141" totalsRowBorderDxfId="140">
   <autoFilter ref="G17:J18" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="nombre" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="costo" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="id_servicio" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="nombre" dataDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="costo" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="id_servicio" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla8" displayName="Tabla8" ref="A22:B23" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla8" displayName="Tabla8" ref="A22:B23" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
   <autoFilter ref="A22:B23" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id_consumo" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="id_producto" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id_consumo" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="id_producto" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="A27:F28" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88" totalsRowBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="A27:F28" totalsRowShown="0" headerRowDxfId="128" dataDxfId="126" headerRowBorderDxfId="127" tableBorderDxfId="125" totalsRowBorderDxfId="124">
   <autoFilter ref="A27:F28" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="tipo_documento" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="numero_documento" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="nombre" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="correo" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{DBB91BFF-3547-5F4B-9536-2DBFCA2CF60C}" name="rol" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{524CBF8C-BD9F-2B49-B396-CDBA5A2F1E08}" name="id_hotel" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="tipo_documento" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="numero_documento" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="nombre" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="correo" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{DBB91BFF-3547-5F4B-9536-2DBFCA2CF60C}" name="rol" dataDxfId="119"/>
+    <tableColumn id="6" xr3:uid="{524CBF8C-BD9F-2B49-B396-CDBA5A2F1E08}" name="id_hotel" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla10" displayName="Tabla10" ref="H27:I28" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="79">
-  <autoFilter ref="H27:I28" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="numero_documento" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="numero_habitacion" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla10" displayName="Tabla10" ref="H27:J28" totalsRowShown="0" headerRowDxfId="117" dataDxfId="115" headerRowBorderDxfId="116" tableBorderDxfId="114" totalsRowBorderDxfId="113">
+  <autoFilter ref="H27:J28" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="numero_documento" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="numero_habitacion" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{B8C8E87B-5C46-7C4B-B48F-0688D0E8A24F}" name="plan_consumo" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla11" displayName="Tabla11" ref="A32:F33" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
-  <autoFilter ref="A32:F33" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="fecha_entrada" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="fecha_salida" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numero_personas" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="documento_cliente" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="id_hotel" dataDxfId="67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla11" displayName="Tabla11" ref="A32:G33" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+  <autoFilter ref="A32:G33" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="fecha_entrada" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="fecha_salida" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numero_personas" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="documento_cliente" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="numero_habitacion" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{589164EB-0896-CA4B-9D44-27BF35553B2E}" name="id_convencion" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2898,10 +3496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2914,17 +3512,17 @@
     <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2967,16 +3565,16 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -3003,9 +3601,6 @@
       <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -3028,9 +3623,6 @@
       </c>
       <c r="G8" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3054,16 +3646,16 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="F11" s="17" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="F11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3106,12 +3698,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="G16" s="22" t="s">
         <v>34</v>
       </c>
@@ -3158,10 +3750,10 @@
       <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="17" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -3178,19 +3770,20 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="D21" s="18" t="s">
+      <c r="B21" s="20"/>
+      <c r="D21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="G21" s="17" t="s">
+      <c r="E21" s="20"/>
+      <c r="G21" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -3237,24 +3830,25 @@
       <c r="H23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="H26" s="18" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="H26" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3281,6 +3875,9 @@
       <c r="I27" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="J27" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
@@ -3292,20 +3889,23 @@
       <c r="C28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="17" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="19" t="s">
         <v>30</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3313,23 +3913,23 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="19"/>
+      <c r="E29" s="17"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="19"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="31" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="H31" s="18" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="I31" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="18"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -3348,12 +3948,15 @@
         <v>46</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3371,29 +3974,34 @@
         <v>11</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="J33" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -3449,7 +4057,7 @@
       <c r="G38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="19" t="s">
         <v>29</v>
       </c>
       <c r="I38" s="9" t="s">
@@ -3460,13 +4068,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -3502,27 +4110,145 @@
         <v>49</v>
       </c>
     </row>
+    <row r="46" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="E46" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="E51" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="H51" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A36:H36"/>
+  <mergeCells count="20">
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G21:I21"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="15">
+  <tableParts count="20">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -3538,6 +4264,11 @@
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
--- a/iteracion1/docs/Modelo Relacional.xlsx
+++ b/iteracion1/docs/Modelo Relacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andydonoso/ProyectoSistrans/iteracion1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5701C978-5318-3C4F-AC89-B6DF614C7AB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07C20B3B-7D87-314B-ACA2-18E97E38CEE6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,10 +522,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,6 +531,11 @@
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -567,6 +572,27 @@
           <color indexed="64"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -574,27 +600,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -654,32 +659,32 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -760,32 +765,32 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -807,25 +812,6 @@
       <font>
         <b/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -883,6 +869,27 @@
           <color indexed="64"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -890,27 +897,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -991,32 +977,32 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1033,11 +1019,6 @@
         </vertical>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1964,6 +1945,25 @@
       <font>
         <b/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2101,6 +2101,11 @@
         </vertical>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2531,11 +2536,6 @@
         </vertical>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2987,91 +2987,91 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla818" displayName="Tabla818" ref="D22:E23" totalsRowShown="0" headerRowDxfId="99" dataDxfId="97" headerRowBorderDxfId="98" tableBorderDxfId="96" totalsRowBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla818" displayName="Tabla818" ref="D22:E23" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
   <autoFilter ref="D22:E23" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="nombre" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="nombre" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla121519" displayName="Tabla121519" ref="A37:J38" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla121519" displayName="Tabla121519" ref="A37:J38" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88" totalsRowBorderDxfId="87">
   <autoFilter ref="A37:J38" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="nombre" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="hora_apertura" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="hora_cierre" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="descripcion" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="capacidad" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="costo" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="lugar" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{A6BAB021-BAE5-4545-9E76-581A44DF9FBF}" name="disponible" dataDxfId="79"/>
-    <tableColumn id="10" xr3:uid="{6FD1E752-2066-564C-A536-D6E01675615B}" name="id_hotel" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="nombre" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="hora_apertura" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="hora_cierre" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="descripcion" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="capacidad" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="costo" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="lugar" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{A6BAB021-BAE5-4545-9E76-581A44DF9FBF}" name="disponible" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{6FD1E752-2066-564C-A536-D6E01675615B}" name="id_hotel" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla19" displayName="Tabla19" ref="A42:E43" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla19" displayName="Tabla19" ref="A42:E43" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
   <autoFilter ref="A42:E43" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="fecha_entrada" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="fecha_salida" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="id_servicio" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="documento_cliente" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="fecha_entrada" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="fecha_salida" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="id_servicio" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="documento_cliente" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla20" displayName="Tabla20" ref="G22:J23" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla20" displayName="Tabla20" ref="G22:J23" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
   <autoFilter ref="G22:J23" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="cantidad" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="id_producto" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{9F193D29-0F9C-6C48-B8E9-5DB8636C0C7E}" name="id_servicio" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="cantidad" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="id_producto" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{9F193D29-0F9C-6C48-B8E9-5DB8636C0C7E}" name="id_servicio" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla3" displayName="Tabla3" ref="A7:G8" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla3" displayName="Tabla3" ref="A7:G8" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="A7:G8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="numero" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="descripcion" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="capacidad" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="tipo_habitacion" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="costo_noche" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="cuenta" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="id_hotel" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="numero" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="descripcion" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="capacidad" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="tipo_habitacion" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="costo_noche" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="cuenta" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="id_hotel" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48316B33-3FBF-8C4B-B40A-181D57DB5326}" name="Tabla813" displayName="Tabla813" ref="I32:J33" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48316B33-3FBF-8C4B-B40A-181D57DB5326}" name="Tabla813" displayName="Tabla813" ref="I32:J33" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="I32:J33" xr:uid="{70D94AC3-E002-A94D-9E4B-3750D5A71E04}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{704CA570-5BD0-A040-8122-86D0A3559F8D}" name="id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{9C632396-D8C0-1143-AAF4-B77F965D6103}" name="nombre" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{704CA570-5BD0-A040-8122-86D0A3559F8D}" name="id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{9C632396-D8C0-1143-AAF4-B77F965D6103}" name="nombre" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D78331C7-C0AB-5C4E-83F2-34D1A5D26FDB}" name="Tabla193" displayName="Tabla193" ref="A47:C48" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D78331C7-C0AB-5C4E-83F2-34D1A5D26FDB}" name="Tabla193" displayName="Tabla193" ref="A47:C48" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="A47:C48" xr:uid="{4E67CDD1-5B63-2541-BE85-91DA25672676}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{622014C9-185F-D544-9685-B1CA3E18B182}" name="numero_documento" dataDxfId="33"/>
@@ -3083,7 +3083,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{5E171A8C-E247-0C46-9D95-298EA503B209}" name="Tabla1914" displayName="Tabla1914" ref="E47:G48" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{5E171A8C-E247-0C46-9D95-298EA503B209}" name="Tabla1914" displayName="Tabla1914" ref="E47:G48" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="E47:G48" xr:uid="{7EC77E0D-9812-1440-816F-11E30012B6B7}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D8104633-D24A-0241-AC66-2FAB2C47DE96}" name="id" dataDxfId="25"/>
@@ -3095,55 +3095,56 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{390554D8-84F3-634D-9753-3226CC70209C}" name="Tabla1915" displayName="Tabla1915" ref="A52:C53" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{390554D8-84F3-634D-9753-3226CC70209C}" name="Tabla1915" displayName="Tabla1915" ref="A52:C53" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A52:C53" xr:uid="{499B6A05-DB7F-F547-B833-BBD59BC8C90B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{76676069-8141-2644-8799-ED06E4221BA7}" name="id" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{632BA1F9-ACE4-7943-86C0-354B14930FE3}" name="fecha_comienzo" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{75B80C56-8B76-AD4F-93CF-B671510688F9}" name="fecha_terminacion" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{76676069-8141-2644-8799-ED06E4221BA7}" name="id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{632BA1F9-ACE4-7943-86C0-354B14930FE3}" name="fecha_comienzo" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{75B80C56-8B76-AD4F-93CF-B671510688F9}" name="fecha_terminacion" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7E2437CC-5F33-4C43-A91A-7470278E3811}" name="Tabla816" displayName="Tabla816" ref="E52:F53" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7E2437CC-5F33-4C43-A91A-7470278E3811}" name="Tabla816" displayName="Tabla816" ref="E52:F53" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="E52:F53" xr:uid="{78840642-3AE0-F345-9512-ED2412F8331E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{511C7847-38A2-5A47-8733-75BA332725E6}" name="id_mantenimiento" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{9BF9900C-8E11-7240-9157-0191B1B77779}" name="id_servicio" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{511C7847-38A2-5A47-8733-75BA332725E6}" name="id_mantenimiento" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{9BF9900C-8E11-7240-9157-0191B1B77779}" name="id_servicio" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla4" displayName="Tabla4" ref="A12:D13" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
-  <autoFilter ref="A12:D13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla4" displayName="Tabla4" ref="A12:E13" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+  <autoFilter ref="A12:E13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="165"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="tipo_plan" dataDxfId="164"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="descripcion" dataDxfId="163"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_hotel" dataDxfId="162"/>
+    <tableColumn id="5" xr3:uid="{81AD4FCC-6302-DF45-BEA8-79B00C312181}" name="documento_cliente" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{9772A126-C7C3-724C-B7B9-99457D76240C}" name="Tabla817" displayName="Tabla817" ref="H52:I53" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{9772A126-C7C3-724C-B7B9-99457D76240C}" name="Tabla817" displayName="Tabla817" ref="H52:I53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="H52:I53" xr:uid="{504B97FF-9834-BD41-ACC8-6707853B180C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD6E0C6C-BF21-B94C-8424-E113ABEEB9D4}" name="id_mantenimiento" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{44110F8A-6D72-1149-B7CE-5635937C3D95}" name="numero_habitacion" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{BD6E0C6C-BF21-B94C-8424-E113ABEEB9D4}" name="id_mantenimiento" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{44110F8A-6D72-1149-B7CE-5635937C3D95}" name="numero_habitacion" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla5" displayName="Tabla5" ref="F12:G13" totalsRowShown="0" headerRowDxfId="161" dataDxfId="159" headerRowBorderDxfId="160" tableBorderDxfId="158" totalsRowBorderDxfId="157">
-  <autoFilter ref="F12:G13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla5" displayName="Tabla5" ref="G12:H13" totalsRowShown="0" headerRowDxfId="161" dataDxfId="159" headerRowBorderDxfId="160" tableBorderDxfId="158" totalsRowBorderDxfId="157">
+  <autoFilter ref="G12:H13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="156"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="tipo" dataDxfId="155"/>
@@ -3153,65 +3154,64 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla6" displayName="Tabla6" ref="A17:E18" totalsRowShown="0" headerRowDxfId="154" dataDxfId="152" headerRowBorderDxfId="153" tableBorderDxfId="151" totalsRowBorderDxfId="150">
-  <autoFilter ref="A17:E18" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla6" displayName="Tabla6" ref="A17:D18" totalsRowShown="0" headerRowDxfId="154" dataDxfId="152" headerRowBorderDxfId="153" tableBorderDxfId="151" totalsRowBorderDxfId="150">
+  <autoFilter ref="A17:D18" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="149"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="lugar" dataDxfId="148"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="costo_total" dataDxfId="147"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="numero_habitacion" dataDxfId="146"/>
-    <tableColumn id="5" xr3:uid="{1B728C93-D579-6A4C-88B9-EF49B5168EAC}" name="documento_cliente" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla7" displayName="Tabla7" ref="G17:J18" totalsRowShown="0" headerRowDxfId="144" dataDxfId="142" headerRowBorderDxfId="143" tableBorderDxfId="141" totalsRowBorderDxfId="140">
-  <autoFilter ref="G17:J18" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla7" displayName="Tabla7" ref="F17:I18" totalsRowShown="0" headerRowDxfId="145" dataDxfId="143" headerRowBorderDxfId="144" tableBorderDxfId="142" totalsRowBorderDxfId="141">
+  <autoFilter ref="F17:I18" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="nombre" dataDxfId="138"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="costo" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="id_servicio" dataDxfId="136"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="nombre" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="costo" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="id_servicio" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla8" displayName="Tabla8" ref="A22:B23" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla8" displayName="Tabla8" ref="A22:B23" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135" tableBorderDxfId="133" totalsRowBorderDxfId="132">
   <autoFilter ref="A22:B23" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id_consumo" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="id_producto" dataDxfId="129"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id_consumo" dataDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="id_producto" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="A27:F28" totalsRowShown="0" headerRowDxfId="128" dataDxfId="126" headerRowBorderDxfId="127" tableBorderDxfId="125" totalsRowBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="A27:F28" totalsRowShown="0" headerRowDxfId="129" dataDxfId="127" headerRowBorderDxfId="128" tableBorderDxfId="126" totalsRowBorderDxfId="125">
   <autoFilter ref="A27:F28" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="tipo_documento" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="numero_documento" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="nombre" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="correo" dataDxfId="120"/>
-    <tableColumn id="5" xr3:uid="{DBB91BFF-3547-5F4B-9536-2DBFCA2CF60C}" name="rol" dataDxfId="119"/>
-    <tableColumn id="6" xr3:uid="{524CBF8C-BD9F-2B49-B396-CDBA5A2F1E08}" name="id_hotel" dataDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="tipo_documento" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="numero_documento" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="nombre" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="correo" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{DBB91BFF-3547-5F4B-9536-2DBFCA2CF60C}" name="rol" dataDxfId="120"/>
+    <tableColumn id="6" xr3:uid="{524CBF8C-BD9F-2B49-B396-CDBA5A2F1E08}" name="id_hotel" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla10" displayName="Tabla10" ref="H27:J28" totalsRowShown="0" headerRowDxfId="117" dataDxfId="115" headerRowBorderDxfId="116" tableBorderDxfId="114" totalsRowBorderDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla10" displayName="Tabla10" ref="H27:J28" totalsRowShown="0" headerRowDxfId="118" dataDxfId="116" headerRowBorderDxfId="117" tableBorderDxfId="115" totalsRowBorderDxfId="114">
   <autoFilter ref="H27:J28" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="numero_documento" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="numero_habitacion" dataDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{B8C8E87B-5C46-7C4B-B48F-0688D0E8A24F}" name="plan_consumo" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="numero_documento" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="numero_habitacion" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{B8C8E87B-5C46-7C4B-B48F-0688D0E8A24F}" name="plan_consumo" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3227,7 +3227,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numero_personas" dataDxfId="102"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="documento_cliente" dataDxfId="101"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="numero_habitacion" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{589164EB-0896-CA4B-9D44-27BF35553B2E}" name="id_convencion" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{589164EB-0896-CA4B-9D44-27BF35553B2E}" name="id_convencion" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3498,8 +3498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3519,10 +3519,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3565,16 +3565,16 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -3646,16 +3646,17 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="F11" s="21" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="G11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3670,10 +3671,13 @@
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3690,26 +3694,29 @@
       <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="G16" s="22" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="G16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -3724,19 +3731,16 @@
       <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3753,37 +3757,34 @@
       <c r="D18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>2</v>
       </c>
+      <c r="G18" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="H18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="I18" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="D21" s="20" t="s">
+      <c r="B21" s="21"/>
+      <c r="D21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="G21" s="21" t="s">
+      <c r="E21" s="21"/>
+      <c r="G21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -3838,17 +3839,17 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="H26" s="22" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="H26" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3919,17 +3920,17 @@
       <c r="I29" s="17"/>
     </row>
     <row r="31" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="I31" s="20" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="I31" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -3990,18 +3991,18 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -4068,13 +4069,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -4111,16 +4112,16 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="E46" s="20" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="E46" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -4163,19 +4164,19 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="E51" s="20" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="E51" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="H51" s="20" t="s">
+      <c r="F51" s="22"/>
+      <c r="H51" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I51" s="24"/>
+      <c r="I51" s="22"/>
     </row>
     <row r="52" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -4225,17 +4226,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A6:G6"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A21:B21"/>
@@ -4245,6 +4235,17 @@
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/iteracion1/docs/Modelo Relacional.xlsx
+++ b/iteracion1/docs/Modelo Relacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andydonoso/ProyectoSistrans/iteracion1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07C20B3B-7D87-314B-ACA2-18E97E38CEE6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FC7108A7-6E03-C845-8894-31903D828987}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>FK(Hotel.id),NN</t>
-  </si>
-  <si>
-    <t>FK(Usuario.numero_documento), NN, FD</t>
   </si>
   <si>
     <t>id_convencion</t>
@@ -526,7 +523,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="177">
+  <dxfs count="179">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2976,258 +3011,260 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A2:B3" totalsRowShown="0" headerRowDxfId="176" dataDxfId="174" headerRowBorderDxfId="175" tableBorderDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A2:B3" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177" tableBorderDxfId="175">
   <autoFilter ref="A2:B3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="172"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nombre" dataDxfId="171"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="174"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nombre" dataDxfId="173"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla818" displayName="Tabla818" ref="D22:E23" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla818" displayName="Tabla818" ref="D22:E23" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="96">
   <autoFilter ref="D22:E23" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="nombre" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="nombre" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla121519" displayName="Tabla121519" ref="A37:J38" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88" totalsRowBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla121519" displayName="Tabla121519" ref="A37:J38" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" totalsRowBorderDxfId="89">
   <autoFilter ref="A37:J38" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="nombre" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="hora_apertura" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="hora_cierre" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="descripcion" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="capacidad" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="costo" dataDxfId="80"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="lugar" dataDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{A6BAB021-BAE5-4545-9E76-581A44DF9FBF}" name="disponible" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{6FD1E752-2066-564C-A536-D6E01675615B}" name="id_hotel" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="nombre" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="hora_apertura" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="hora_cierre" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="descripcion" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="capacidad" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="costo" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="lugar" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{A6BAB021-BAE5-4545-9E76-581A44DF9FBF}" name="disponible" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{6FD1E752-2066-564C-A536-D6E01675615B}" name="id_hotel" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla19" displayName="Tabla19" ref="A42:E43" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
-  <autoFilter ref="A42:E43" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="fecha_entrada" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="fecha_salida" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="id_servicio" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="documento_cliente" dataDxfId="67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla19" displayName="Tabla19" ref="A42:G43" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+  <autoFilter ref="A42:G43" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="fecha_entrada" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="fecha_salida" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="id_servicio" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="documento_cliente" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{9D8C45F8-26C6-3144-8DB5-FB39D28B6865}" name="id_convencion" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C870F28B-3965-D745-AE49-AEAFDCE06102}" name="cantidad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla20" displayName="Tabla20" ref="G22:J23" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla20" displayName="Tabla20" ref="G22:J23" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" totalsRowBorderDxfId="64">
   <autoFilter ref="G22:J23" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="cantidad" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="id_producto" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{9F193D29-0F9C-6C48-B8E9-5DB8636C0C7E}" name="id_servicio" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="cantidad" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="id_producto" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{9F193D29-0F9C-6C48-B8E9-5DB8636C0C7E}" name="id_servicio" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla3" displayName="Tabla3" ref="A7:G8" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla3" displayName="Tabla3" ref="A7:G8" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="A7:G8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="numero" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="descripcion" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="capacidad" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="tipo_habitacion" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="costo_noche" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="cuenta" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="id_hotel" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="numero" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="descripcion" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="capacidad" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="tipo_habitacion" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="costo_noche" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="cuenta" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="id_hotel" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48316B33-3FBF-8C4B-B40A-181D57DB5326}" name="Tabla813" displayName="Tabla813" ref="I32:J33" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48316B33-3FBF-8C4B-B40A-181D57DB5326}" name="Tabla813" displayName="Tabla813" ref="I32:J33" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="I32:J33" xr:uid="{70D94AC3-E002-A94D-9E4B-3750D5A71E04}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{704CA570-5BD0-A040-8122-86D0A3559F8D}" name="id" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{9C632396-D8C0-1143-AAF4-B77F965D6103}" name="nombre" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{704CA570-5BD0-A040-8122-86D0A3559F8D}" name="id" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{9C632396-D8C0-1143-AAF4-B77F965D6103}" name="nombre" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D78331C7-C0AB-5C4E-83F2-34D1A5D26FDB}" name="Tabla193" displayName="Tabla193" ref="A47:C48" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D78331C7-C0AB-5C4E-83F2-34D1A5D26FDB}" name="Tabla193" displayName="Tabla193" ref="A47:C48" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="A47:C48" xr:uid="{4E67CDD1-5B63-2541-BE85-91DA25672676}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{622014C9-185F-D544-9685-B1CA3E18B182}" name="numero_documento" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{CF36C2EC-2C76-CE41-9E4A-F60FAF1CDBBC}" name="id_convencion" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{80E02F49-C0BD-2149-8352-0E23AC00CA9F}" name="id_hotel" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{622014C9-185F-D544-9685-B1CA3E18B182}" name="numero_documento" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{CF36C2EC-2C76-CE41-9E4A-F60FAF1CDBBC}" name="id_convencion" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{80E02F49-C0BD-2149-8352-0E23AC00CA9F}" name="id_hotel" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{5E171A8C-E247-0C46-9D95-298EA503B209}" name="Tabla1914" displayName="Tabla1914" ref="E47:G48" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{5E171A8C-E247-0C46-9D95-298EA503B209}" name="Tabla1914" displayName="Tabla1914" ref="E47:G48" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="E47:G48" xr:uid="{7EC77E0D-9812-1440-816F-11E30012B6B7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D8104633-D24A-0241-AC66-2FAB2C47DE96}" name="id" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{DA524563-D192-D440-9C2A-709A458D952E}" name="cuenta" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{E8637BC2-1D1F-B441-8948-87D2F207F828}" name="id_hotel" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{D8104633-D24A-0241-AC66-2FAB2C47DE96}" name="id" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{DA524563-D192-D440-9C2A-709A458D952E}" name="cuenta" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{E8637BC2-1D1F-B441-8948-87D2F207F828}" name="id_hotel" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{390554D8-84F3-634D-9753-3226CC70209C}" name="Tabla1915" displayName="Tabla1915" ref="A52:C53" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{390554D8-84F3-634D-9753-3226CC70209C}" name="Tabla1915" displayName="Tabla1915" ref="A52:C53" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A52:C53" xr:uid="{499B6A05-DB7F-F547-B833-BBD59BC8C90B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{76676069-8141-2644-8799-ED06E4221BA7}" name="id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{632BA1F9-ACE4-7943-86C0-354B14930FE3}" name="fecha_comienzo" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{75B80C56-8B76-AD4F-93CF-B671510688F9}" name="fecha_terminacion" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{76676069-8141-2644-8799-ED06E4221BA7}" name="id" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{632BA1F9-ACE4-7943-86C0-354B14930FE3}" name="fecha_comienzo" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{75B80C56-8B76-AD4F-93CF-B671510688F9}" name="fecha_terminacion" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7E2437CC-5F33-4C43-A91A-7470278E3811}" name="Tabla816" displayName="Tabla816" ref="E52:F53" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7E2437CC-5F33-4C43-A91A-7470278E3811}" name="Tabla816" displayName="Tabla816" ref="E52:F53" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="E52:F53" xr:uid="{78840642-3AE0-F345-9512-ED2412F8331E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{511C7847-38A2-5A47-8733-75BA332725E6}" name="id_mantenimiento" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{9BF9900C-8E11-7240-9157-0191B1B77779}" name="id_servicio" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{511C7847-38A2-5A47-8733-75BA332725E6}" name="id_mantenimiento" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9BF9900C-8E11-7240-9157-0191B1B77779}" name="id_servicio" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla4" displayName="Tabla4" ref="A12:E13" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla4" displayName="Tabla4" ref="A12:E13" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169" totalsRowBorderDxfId="168">
   <autoFilter ref="A12:E13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="tipo_plan" dataDxfId="164"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="descripcion" dataDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_hotel" dataDxfId="162"/>
-    <tableColumn id="5" xr3:uid="{81AD4FCC-6302-DF45-BEA8-79B00C312181}" name="documento_cliente" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="tipo_plan" dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="descripcion" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_hotel" dataDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{81AD4FCC-6302-DF45-BEA8-79B00C312181}" name="documento_cliente" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{9772A126-C7C3-724C-B7B9-99457D76240C}" name="Tabla817" displayName="Tabla817" ref="H52:I53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{9772A126-C7C3-724C-B7B9-99457D76240C}" name="Tabla817" displayName="Tabla817" ref="H52:I53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="H52:I53" xr:uid="{504B97FF-9834-BD41-ACC8-6707853B180C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD6E0C6C-BF21-B94C-8424-E113ABEEB9D4}" name="id_mantenimiento" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{44110F8A-6D72-1149-B7CE-5635937C3D95}" name="numero_habitacion" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BD6E0C6C-BF21-B94C-8424-E113ABEEB9D4}" name="id_mantenimiento" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{44110F8A-6D72-1149-B7CE-5635937C3D95}" name="numero_habitacion" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla5" displayName="Tabla5" ref="G12:H13" totalsRowShown="0" headerRowDxfId="161" dataDxfId="159" headerRowBorderDxfId="160" tableBorderDxfId="158" totalsRowBorderDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla5" displayName="Tabla5" ref="G12:H13" totalsRowShown="0" headerRowDxfId="163" dataDxfId="161" headerRowBorderDxfId="162" tableBorderDxfId="160" totalsRowBorderDxfId="159">
   <autoFilter ref="G12:H13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="tipo" dataDxfId="155"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="tipo" dataDxfId="157"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla6" displayName="Tabla6" ref="A17:D18" totalsRowShown="0" headerRowDxfId="154" dataDxfId="152" headerRowBorderDxfId="153" tableBorderDxfId="151" totalsRowBorderDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla6" displayName="Tabla6" ref="A17:D18" totalsRowShown="0" headerRowDxfId="156" dataDxfId="154" headerRowBorderDxfId="155" tableBorderDxfId="153" totalsRowBorderDxfId="152">
   <autoFilter ref="A17:D18" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="149"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="lugar" dataDxfId="148"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="costo_total" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="numero_habitacion" dataDxfId="146"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="lugar" dataDxfId="150"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="costo_total" dataDxfId="149"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="numero_habitacion" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla7" displayName="Tabla7" ref="F17:I18" totalsRowShown="0" headerRowDxfId="145" dataDxfId="143" headerRowBorderDxfId="144" tableBorderDxfId="142" totalsRowBorderDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla7" displayName="Tabla7" ref="F17:I18" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
   <autoFilter ref="F17:I18" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="nombre" dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="costo" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="id_servicio" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="nombre" dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="costo" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="id_servicio" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla8" displayName="Tabla8" ref="A22:B23" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135" tableBorderDxfId="133" totalsRowBorderDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla8" displayName="Tabla8" ref="A22:B23" totalsRowShown="0" headerRowDxfId="138" dataDxfId="136" headerRowBorderDxfId="137" tableBorderDxfId="135" totalsRowBorderDxfId="134">
   <autoFilter ref="A22:B23" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id_consumo" dataDxfId="131"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="id_producto" dataDxfId="130"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id_consumo" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="id_producto" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="A27:F28" totalsRowShown="0" headerRowDxfId="129" dataDxfId="127" headerRowBorderDxfId="128" tableBorderDxfId="126" totalsRowBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="A27:F28" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
   <autoFilter ref="A27:F28" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="tipo_documento" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="numero_documento" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="nombre" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="correo" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{DBB91BFF-3547-5F4B-9536-2DBFCA2CF60C}" name="rol" dataDxfId="120"/>
-    <tableColumn id="6" xr3:uid="{524CBF8C-BD9F-2B49-B396-CDBA5A2F1E08}" name="id_hotel" dataDxfId="119"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="tipo_documento" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="numero_documento" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="nombre" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="correo" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{DBB91BFF-3547-5F4B-9536-2DBFCA2CF60C}" name="rol" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{524CBF8C-BD9F-2B49-B396-CDBA5A2F1E08}" name="id_hotel" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla10" displayName="Tabla10" ref="H27:J28" totalsRowShown="0" headerRowDxfId="118" dataDxfId="116" headerRowBorderDxfId="117" tableBorderDxfId="115" totalsRowBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla10" displayName="Tabla10" ref="H27:J28" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117" totalsRowBorderDxfId="116">
   <autoFilter ref="H27:J28" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="numero_documento" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="numero_habitacion" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{B8C8E87B-5C46-7C4B-B48F-0688D0E8A24F}" name="plan_consumo" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="numero_documento" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="numero_habitacion" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{B8C8E87B-5C46-7C4B-B48F-0688D0E8A24F}" name="plan_consumo" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla11" displayName="Tabla11" ref="A32:G33" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla11" displayName="Tabla11" ref="A32:G33" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109" totalsRowBorderDxfId="108">
   <autoFilter ref="A32:G33" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="fecha_entrada" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="fecha_salida" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numero_personas" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="documento_cliente" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="numero_habitacion" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{589164EB-0896-CA4B-9D44-27BF35553B2E}" name="id_convencion" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="fecha_entrada" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="fecha_salida" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numero_personas" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="documento_cliente" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="numero_habitacion" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{589164EB-0896-CA4B-9D44-27BF35553B2E}" name="id_convencion" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3498,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3952,7 +3989,7 @@
         <v>28</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>0</v>
@@ -3975,13 +4012,13 @@
         <v>11</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>2</v>
@@ -4069,13 +4106,14 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -4093,6 +4131,12 @@
       <c r="E42" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="F42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
@@ -4108,17 +4152,23 @@
         <v>61</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="E46" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -4128,7 +4178,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>13</v>
@@ -4145,10 +4195,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>16</v>
@@ -4165,16 +4215,16 @@
     </row>
     <row r="51" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
       <c r="E51" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F51" s="22"/>
       <c r="H51" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I51" s="22"/>
     </row>
@@ -4183,19 +4233,19 @@
         <v>0</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>28</v>
@@ -4212,13 +4262,13 @@
         <v>60</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>61</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>65</v>
@@ -4227,7 +4277,6 @@
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A41:E41"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A31:E31"/>
@@ -4235,6 +4284,7 @@
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="A16:D16"/>

--- a/iteracion1/docs/Modelo Relacional.xlsx
+++ b/iteracion1/docs/Modelo Relacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andydonoso/ProyectoSistrans/iteracion1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FC7108A7-6E03-C845-8894-31903D828987}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C79F764-9EC8-484F-A7BB-F258644D8A1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>MantenimientoHabitacion</t>
+  </si>
+  <si>
+    <t>gasto_total</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="179">
+  <dxfs count="180">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3011,260 +3019,261 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A2:B3" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177" tableBorderDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A2:B3" totalsRowShown="0" headerRowDxfId="179" dataDxfId="177" headerRowBorderDxfId="178" tableBorderDxfId="176">
   <autoFilter ref="A2:B3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="174"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nombre" dataDxfId="173"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nombre" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla818" displayName="Tabla818" ref="D22:E23" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla818" displayName="Tabla818" ref="D22:E23" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98" totalsRowBorderDxfId="97">
   <autoFilter ref="D22:E23" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="nombre" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="id" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="nombre" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla121519" displayName="Tabla121519" ref="A37:J38" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" totalsRowBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla121519" displayName="Tabla121519" ref="A37:J38" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
   <autoFilter ref="A37:J38" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="nombre" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="hora_apertura" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="hora_cierre" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="descripcion" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="capacidad" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="costo" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="lugar" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{A6BAB021-BAE5-4545-9E76-581A44DF9FBF}" name="disponible" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{6FD1E752-2066-564C-A536-D6E01675615B}" name="id_hotel" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="id" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="nombre" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="hora_apertura" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="hora_cierre" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="descripcion" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="capacidad" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="costo" dataDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="lugar" dataDxfId="82"/>
+    <tableColumn id="9" xr3:uid="{A6BAB021-BAE5-4545-9E76-581A44DF9FBF}" name="disponible" dataDxfId="81"/>
+    <tableColumn id="10" xr3:uid="{6FD1E752-2066-564C-A536-D6E01675615B}" name="id_hotel" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla19" displayName="Tabla19" ref="A42:G43" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tabla19" displayName="Tabla19" ref="A42:G43" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="A42:G43" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="fecha_entrada" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="fecha_salida" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="id_servicio" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="documento_cliente" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{9D8C45F8-26C6-3144-8DB5-FB39D28B6865}" name="id_convencion" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{C870F28B-3965-D745-AE49-AEAFDCE06102}" name="cantidad" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="id" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="fecha_entrada" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="fecha_salida" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="id_servicio" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="documento_cliente" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{9D8C45F8-26C6-3144-8DB5-FB39D28B6865}" name="id_convencion" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{C870F28B-3965-D745-AE49-AEAFDCE06102}" name="cantidad" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla20" displayName="Tabla20" ref="G22:J23" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" totalsRowBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tabla20" displayName="Tabla20" ref="G22:J23" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="65">
   <autoFilter ref="G22:J23" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="cantidad" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="id_producto" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{9F193D29-0F9C-6C48-B8E9-5DB8636C0C7E}" name="id_servicio" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="id" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="cantidad" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="id_producto" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{9F193D29-0F9C-6C48-B8E9-5DB8636C0C7E}" name="id_servicio" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla3" displayName="Tabla3" ref="A7:G8" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tabla3" displayName="Tabla3" ref="A7:G8" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="A7:G8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="numero" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="descripcion" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="capacidad" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="tipo_habitacion" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="costo_noche" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="cuenta" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="id_hotel" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="numero" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="descripcion" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="capacidad" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="tipo_habitacion" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="costo_noche" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="cuenta" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="id_hotel" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48316B33-3FBF-8C4B-B40A-181D57DB5326}" name="Tabla813" displayName="Tabla813" ref="I32:J33" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48316B33-3FBF-8C4B-B40A-181D57DB5326}" name="Tabla813" displayName="Tabla813" ref="I32:J33" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <autoFilter ref="I32:J33" xr:uid="{70D94AC3-E002-A94D-9E4B-3750D5A71E04}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{704CA570-5BD0-A040-8122-86D0A3559F8D}" name="id" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{9C632396-D8C0-1143-AAF4-B77F965D6103}" name="nombre" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{704CA570-5BD0-A040-8122-86D0A3559F8D}" name="id" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{9C632396-D8C0-1143-AAF4-B77F965D6103}" name="nombre" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D78331C7-C0AB-5C4E-83F2-34D1A5D26FDB}" name="Tabla193" displayName="Tabla193" ref="A47:C48" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D78331C7-C0AB-5C4E-83F2-34D1A5D26FDB}" name="Tabla193" displayName="Tabla193" ref="A47:C48" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="A47:C48" xr:uid="{4E67CDD1-5B63-2541-BE85-91DA25672676}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{622014C9-185F-D544-9685-B1CA3E18B182}" name="numero_documento" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{CF36C2EC-2C76-CE41-9E4A-F60FAF1CDBBC}" name="id_convencion" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{80E02F49-C0BD-2149-8352-0E23AC00CA9F}" name="id_hotel" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{622014C9-185F-D544-9685-B1CA3E18B182}" name="numero_documento" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{CF36C2EC-2C76-CE41-9E4A-F60FAF1CDBBC}" name="id_convencion" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{80E02F49-C0BD-2149-8352-0E23AC00CA9F}" name="id_hotel" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{5E171A8C-E247-0C46-9D95-298EA503B209}" name="Tabla1914" displayName="Tabla1914" ref="E47:G48" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{5E171A8C-E247-0C46-9D95-298EA503B209}" name="Tabla1914" displayName="Tabla1914" ref="E47:G48" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="E47:G48" xr:uid="{7EC77E0D-9812-1440-816F-11E30012B6B7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D8104633-D24A-0241-AC66-2FAB2C47DE96}" name="id" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{DA524563-D192-D440-9C2A-709A458D952E}" name="cuenta" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{E8637BC2-1D1F-B441-8948-87D2F207F828}" name="id_hotel" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{D8104633-D24A-0241-AC66-2FAB2C47DE96}" name="id" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{DA524563-D192-D440-9C2A-709A458D952E}" name="cuenta" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{E8637BC2-1D1F-B441-8948-87D2F207F828}" name="id_hotel" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{390554D8-84F3-634D-9753-3226CC70209C}" name="Tabla1915" displayName="Tabla1915" ref="A52:C53" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{390554D8-84F3-634D-9753-3226CC70209C}" name="Tabla1915" displayName="Tabla1915" ref="A52:C53" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A52:C53" xr:uid="{499B6A05-DB7F-F547-B833-BBD59BC8C90B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{76676069-8141-2644-8799-ED06E4221BA7}" name="id" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{632BA1F9-ACE4-7943-86C0-354B14930FE3}" name="fecha_comienzo" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{75B80C56-8B76-AD4F-93CF-B671510688F9}" name="fecha_terminacion" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{76676069-8141-2644-8799-ED06E4221BA7}" name="id" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{632BA1F9-ACE4-7943-86C0-354B14930FE3}" name="fecha_comienzo" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{75B80C56-8B76-AD4F-93CF-B671510688F9}" name="fecha_terminacion" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7E2437CC-5F33-4C43-A91A-7470278E3811}" name="Tabla816" displayName="Tabla816" ref="E52:F53" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7E2437CC-5F33-4C43-A91A-7470278E3811}" name="Tabla816" displayName="Tabla816" ref="E52:F53" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="E52:F53" xr:uid="{78840642-3AE0-F345-9512-ED2412F8331E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{511C7847-38A2-5A47-8733-75BA332725E6}" name="id_mantenimiento" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9BF9900C-8E11-7240-9157-0191B1B77779}" name="id_servicio" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{511C7847-38A2-5A47-8733-75BA332725E6}" name="id_mantenimiento" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{9BF9900C-8E11-7240-9157-0191B1B77779}" name="id_servicio" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla4" displayName="Tabla4" ref="A12:E13" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169" totalsRowBorderDxfId="168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla4" displayName="Tabla4" ref="A12:E13" totalsRowShown="0" headerRowDxfId="173" dataDxfId="171" headerRowBorderDxfId="172" tableBorderDxfId="170" totalsRowBorderDxfId="169">
   <autoFilter ref="A12:E13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="tipo_plan" dataDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="descripcion" dataDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_hotel" dataDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{81AD4FCC-6302-DF45-BEA8-79B00C312181}" name="documento_cliente" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" dataDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="tipo_plan" dataDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="descripcion" dataDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="id_hotel" dataDxfId="165"/>
+    <tableColumn id="5" xr3:uid="{81AD4FCC-6302-DF45-BEA8-79B00C312181}" name="documento_cliente" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{9772A126-C7C3-724C-B7B9-99457D76240C}" name="Tabla817" displayName="Tabla817" ref="H52:I53" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{9772A126-C7C3-724C-B7B9-99457D76240C}" name="Tabla817" displayName="Tabla817" ref="H52:I53" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="H52:I53" xr:uid="{504B97FF-9834-BD41-ACC8-6707853B180C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD6E0C6C-BF21-B94C-8424-E113ABEEB9D4}" name="id_mantenimiento" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{44110F8A-6D72-1149-B7CE-5635937C3D95}" name="numero_habitacion" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BD6E0C6C-BF21-B94C-8424-E113ABEEB9D4}" name="id_mantenimiento" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{44110F8A-6D72-1149-B7CE-5635937C3D95}" name="numero_habitacion" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla5" displayName="Tabla5" ref="G12:H13" totalsRowShown="0" headerRowDxfId="163" dataDxfId="161" headerRowBorderDxfId="162" tableBorderDxfId="160" totalsRowBorderDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla5" displayName="Tabla5" ref="G12:H13" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163" tableBorderDxfId="161" totalsRowBorderDxfId="160">
   <autoFilter ref="G12:H13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="158"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="tipo" dataDxfId="157"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="tipo" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla6" displayName="Tabla6" ref="A17:D18" totalsRowShown="0" headerRowDxfId="156" dataDxfId="154" headerRowBorderDxfId="155" tableBorderDxfId="153" totalsRowBorderDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla6" displayName="Tabla6" ref="A17:D18" totalsRowShown="0" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156" tableBorderDxfId="154" totalsRowBorderDxfId="153">
   <autoFilter ref="A17:D18" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="151"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="lugar" dataDxfId="150"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="costo_total" dataDxfId="149"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="numero_habitacion" dataDxfId="148"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="lugar" dataDxfId="151"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="costo_total" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="numero_habitacion" dataDxfId="149"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla7" displayName="Tabla7" ref="F17:I18" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla7" displayName="Tabla7" ref="F17:I18" totalsRowShown="0" headerRowDxfId="148" dataDxfId="146" headerRowBorderDxfId="147" tableBorderDxfId="145" totalsRowBorderDxfId="144">
   <autoFilter ref="F17:I18" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="nombre" dataDxfId="141"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="costo" dataDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="id_servicio" dataDxfId="139"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id" dataDxfId="143"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="nombre" dataDxfId="142"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="costo" dataDxfId="141"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="id_servicio" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla8" displayName="Tabla8" ref="A22:B23" totalsRowShown="0" headerRowDxfId="138" dataDxfId="136" headerRowBorderDxfId="137" tableBorderDxfId="135" totalsRowBorderDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla8" displayName="Tabla8" ref="A22:B23" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136" totalsRowBorderDxfId="135">
   <autoFilter ref="A22:B23" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id_consumo" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="id_producto" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="id_consumo" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="id_producto" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="A27:F28" totalsRowShown="0" headerRowDxfId="131" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" totalsRowBorderDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla9" displayName="Tabla9" ref="A27:F28" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
   <autoFilter ref="A27:F28" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="tipo_documento" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="numero_documento" dataDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="nombre" dataDxfId="124"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="correo" dataDxfId="123"/>
-    <tableColumn id="5" xr3:uid="{DBB91BFF-3547-5F4B-9536-2DBFCA2CF60C}" name="rol" dataDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{524CBF8C-BD9F-2B49-B396-CDBA5A2F1E08}" name="id_hotel" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="tipo_documento" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="numero_documento" dataDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="nombre" dataDxfId="125"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="correo" dataDxfId="124"/>
+    <tableColumn id="5" xr3:uid="{DBB91BFF-3547-5F4B-9536-2DBFCA2CF60C}" name="rol" dataDxfId="123"/>
+    <tableColumn id="6" xr3:uid="{524CBF8C-BD9F-2B49-B396-CDBA5A2F1E08}" name="id_hotel" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla10" displayName="Tabla10" ref="H27:J28" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117" totalsRowBorderDxfId="116">
-  <autoFilter ref="H27:J28" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="numero_documento" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="numero_habitacion" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{B8C8E87B-5C46-7C4B-B48F-0688D0E8A24F}" name="plan_consumo" dataDxfId="113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla10" displayName="Tabla10" ref="H27:K28" totalsRowShown="0" headerRowDxfId="121" dataDxfId="119" headerRowBorderDxfId="120" tableBorderDxfId="118" totalsRowBorderDxfId="117">
+  <autoFilter ref="H27:K28" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="numero_documento" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="numero_habitacion" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{B8C8E87B-5C46-7C4B-B48F-0688D0E8A24F}" name="plan_consumo" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{DA7BE493-E5E0-9546-AE52-7A05DFF7223E}" name="gasto_total" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla11" displayName="Tabla11" ref="A32:G33" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109" totalsRowBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla11" displayName="Tabla11" ref="A32:G33" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
   <autoFilter ref="A32:G33" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="fecha_entrada" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="fecha_salida" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numero_personas" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="documento_cliente" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="numero_habitacion" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{589164EB-0896-CA4B-9D44-27BF35553B2E}" name="id_convencion" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="id" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="fecha_entrada" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="fecha_salida" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="numero_personas" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="documento_cliente" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="numero_habitacion" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{589164EB-0896-CA4B-9D44-27BF35553B2E}" name="id_convencion" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3535,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3755,7 +3764,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -3781,7 +3790,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>2</v>
       </c>
@@ -3807,7 +3816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>39</v>
       </c>
@@ -3823,7 +3832,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3849,7 +3858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
@@ -3875,7 +3884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>43</v>
       </c>
@@ -3888,7 +3897,7 @@
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -3916,8 +3925,11 @@
       <c r="J27" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="K27" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>18</v>
       </c>
@@ -3945,8 +3957,11 @@
       <c r="J28" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="K28" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3956,7 +3971,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>50</v>
       </c>
@@ -3969,7 +3984,7 @@
       </c>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
